--- a/src/main/resources/template/custInfo.xlsx
+++ b/src/main/resources/template/custInfo.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\xuqiu\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9540"/>
   </bookViews>
   <sheets>
     <sheet name="花名册" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>序号</t>
   </si>
@@ -39,13 +34,21 @@
   </si>
   <si>
     <t>薪水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>住址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -435,18 +438,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="16.125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="1" max="8" width="16.125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" customHeight="1">
+    <row r="1" spans="1:8" ht="21" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,6 +469,12 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
